--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2426.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2426.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.030220531653419</v>
+        <v>0.9964644908905029</v>
       </c>
       <c r="B1">
-        <v>2.086313651677458</v>
+        <v>1.711386799812317</v>
       </c>
       <c r="C1">
-        <v>8.989954066947183</v>
+        <v>3.468760967254639</v>
       </c>
       <c r="D1">
-        <v>2.178916310649422</v>
+        <v>3.706749677658081</v>
       </c>
       <c r="E1">
-        <v>0.9938295856140218</v>
+        <v>0.9452120065689087</v>
       </c>
     </row>
   </sheetData>
